--- a/VSMT/docs/szakdoga_plan.xlsx
+++ b/VSMT/docs/szakdoga_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otthon1\Downloads\szakdogas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F36ADA5D-CDB4-484A-9046-4B6C183660CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61112C1D-7AF5-42C8-BF3A-20AD7C0966D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E587856-A49F-46E0-9AE8-ED5A81FF3233}"/>
   </bookViews>
@@ -660,7 +660,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +711,7 @@
       </c>
       <c r="B3">
         <f>SUM(B5:B8)</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="C3">
         <f>SUM(C5:C8)</f>
@@ -719,7 +719,7 @@
       </c>
       <c r="D3">
         <f>SUM(D5:D8)</f>
-        <v>7485</v>
+        <v>7491</v>
       </c>
       <c r="F3" s="6">
         <f>SUM(F5:F8)</f>
@@ -740,7 +740,7 @@
         <v>600</v>
       </c>
       <c r="D5">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F5" s="6">
         <v>600</v>
@@ -760,7 +760,7 @@
       </c>
       <c r="D6">
         <f>SUM(D10:D12)</f>
-        <v>2200</v>
+        <v>2250</v>
       </c>
       <c r="F6" s="6">
         <f>SUM(F10:F12)</f>
@@ -773,7 +773,7 @@
       </c>
       <c r="B7">
         <f>B14+B19+B24</f>
-        <v>3430</v>
+        <v>3230</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:F7" si="0">C14+C19+C24</f>
@@ -781,7 +781,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>4285</v>
+        <v>4191</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
@@ -823,7 +823,7 @@
         <v>1000</v>
       </c>
       <c r="D10" s="2">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B25:B31)</f>
-        <v>1750</v>
+        <v>1550</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:F24" si="4">SUM(C25:C31)</f>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="4"/>
-        <v>2290</v>
+        <v>2196</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="8">
@@ -1108,13 +1108,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C25" s="1">
         <v>800</v>
       </c>
       <c r="D25" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="8">
@@ -1207,7 +1207,7 @@
         <v>600</v>
       </c>
       <c r="D29" s="1">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="8">
@@ -1255,7 +1255,7 @@
         <v>300</v>
       </c>
       <c r="D31" s="1">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="8">
